--- a/data/trans_orig/P6704-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6704-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>60632</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>48218</v>
+        <v>47758</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76261</v>
+        <v>75820</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2254517331370674</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1792922516596227</v>
+        <v>0.1775823320448588</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2835655931612303</v>
+        <v>0.2819259138087368</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -764,19 +764,19 @@
         <v>32236</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22284</v>
+        <v>22586</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43160</v>
+        <v>43946</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1998807246768853</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1381722390313482</v>
+        <v>0.1400457782760918</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2676160713348466</v>
+        <v>0.2724891243021495</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>87</v>
@@ -785,19 +785,19 @@
         <v>92868</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77107</v>
+        <v>73877</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111822</v>
+        <v>110026</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2158658377980928</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1792310977435536</v>
+        <v>0.1717228726371443</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2599240521448515</v>
+        <v>0.2557484747355189</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>56771</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45366</v>
+        <v>45166</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>72245</v>
+        <v>72146</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2110936790410338</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1686878242234579</v>
+        <v>0.1679412981149205</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2686327078059463</v>
+        <v>0.2682634905648309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -835,19 +835,19 @@
         <v>38611</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26925</v>
+        <v>28843</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50278</v>
+        <v>50781</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2394104903294819</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1669482526587327</v>
+        <v>0.1788424327686549</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.311755209422127</v>
+        <v>0.3148704994701821</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>90</v>
@@ -856,19 +856,19 @@
         <v>95382</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>77887</v>
+        <v>80145</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>113437</v>
+        <v>114396</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2217089033004615</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1810436074642921</v>
+        <v>0.1862924583956309</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2636766256556726</v>
+        <v>0.2659067430162258</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>80900</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>65530</v>
+        <v>66287</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>96514</v>
+        <v>97160</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3008127927826414</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2436628262645693</v>
+        <v>0.2464778830371173</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3588740014399835</v>
+        <v>0.3612735291201867</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>47</v>
@@ -906,19 +906,19 @@
         <v>50719</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39174</v>
+        <v>38589</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>63985</v>
+        <v>63601</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3144872588991601</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2428990939667494</v>
+        <v>0.2392766420220425</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3967458379571323</v>
+        <v>0.394366057957567</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>127</v>
@@ -927,19 +927,19 @@
         <v>131619</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>112973</v>
+        <v>111610</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>152857</v>
+        <v>151974</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3059389887718773</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2625990618556505</v>
+        <v>0.2594292230490403</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3553060846232782</v>
+        <v>0.3532538440433699</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>40498</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29327</v>
+        <v>29726</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53296</v>
+        <v>53567</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1505838738845926</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1090470193090014</v>
+        <v>0.1105316110663665</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1981739004718298</v>
+        <v>0.1991790299590418</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -977,19 +977,19 @@
         <v>24085</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15570</v>
+        <v>16116</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34130</v>
+        <v>35043</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1493420389399567</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09654035338057627</v>
+        <v>0.09993118770714826</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2116266320425771</v>
+        <v>0.2172865415991883</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -998,19 +998,19 @@
         <v>64583</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50051</v>
+        <v>50836</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>81909</v>
+        <v>81055</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1501183427802524</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1163394804975298</v>
+        <v>0.1181658687737605</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1903922789006748</v>
+        <v>0.1884080288748104</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>30137</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20422</v>
+        <v>20892</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>42112</v>
+        <v>42251</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1120579211546648</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07593630727095982</v>
+        <v>0.07768541885593577</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1565861037722128</v>
+        <v>0.1571050536093671</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -1048,19 +1048,19 @@
         <v>15624</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9124</v>
+        <v>9390</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25055</v>
+        <v>25552</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09687948715451605</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05657477674230366</v>
+        <v>0.05822480320943869</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1553558691278486</v>
+        <v>0.158437848908682</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>44</v>
@@ -1069,19 +1069,19 @@
         <v>45761</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>34822</v>
+        <v>34155</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>59686</v>
+        <v>61598</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.106367927349316</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08094069825775761</v>
+        <v>0.07939154131111813</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1387364619756048</v>
+        <v>0.1431795665215516</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>69136</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53476</v>
+        <v>53069</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89744</v>
+        <v>86300</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1683405528379967</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1302108414428354</v>
+        <v>0.1292187370777378</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2185197694678147</v>
+        <v>0.2101328789506809</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -1194,19 +1194,19 @@
         <v>67195</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53958</v>
+        <v>53223</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83852</v>
+        <v>83584</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2504021253412756</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2010740374668338</v>
+        <v>0.1983346883017144</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3124744515019767</v>
+        <v>0.3114761351728347</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>121</v>
@@ -1215,19 +1215,19 @@
         <v>136331</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>114322</v>
+        <v>115011</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>157024</v>
+        <v>158329</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2007703250266219</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1683578360439021</v>
+        <v>0.169372751442958</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2312445462276673</v>
+        <v>0.2331655797897292</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>77120</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>61455</v>
+        <v>61517</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>94557</v>
+        <v>94885</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1877800266551961</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1496371136507132</v>
+        <v>0.1497901861012848</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2302392403471592</v>
+        <v>0.231038288606048</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -1265,19 +1265,19 @@
         <v>42239</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31186</v>
+        <v>31445</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56811</v>
+        <v>55120</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1574037705330998</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1162134314707018</v>
+        <v>0.1171811782066947</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2117055245712783</v>
+        <v>0.2054032897952636</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>109</v>
@@ -1286,19 +1286,19 @@
         <v>119359</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>99521</v>
+        <v>99552</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>139958</v>
+        <v>142666</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1757756860615089</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1465608413702675</v>
+        <v>0.1466071950672495</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2061115795520834</v>
+        <v>0.2100993275780892</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>126553</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>108858</v>
+        <v>109607</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>146714</v>
+        <v>146467</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.308145537334642</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2650607125777867</v>
+        <v>0.2668853273292275</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3572364907774569</v>
+        <v>0.3566360931559073</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>68</v>
@@ -1336,19 +1336,19 @@
         <v>74223</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>60773</v>
+        <v>60155</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>90046</v>
+        <v>91288</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2765911074288652</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2264725252403157</v>
+        <v>0.2241694116476535</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.33555647108697</v>
+        <v>0.3401864212146503</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>186</v>
@@ -1357,19 +1357,19 @@
         <v>200775</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>175186</v>
+        <v>175523</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>225352</v>
+        <v>223693</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2956755962627061</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2579906114371837</v>
+        <v>0.2584878978021649</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3318695645906425</v>
+        <v>0.3294259489718475</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>62625</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47822</v>
+        <v>49451</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78508</v>
+        <v>78893</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1524879145747272</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1164435032567496</v>
+        <v>0.1204100138717653</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1911599165387258</v>
+        <v>0.1920990987306687</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -1407,19 +1407,19 @@
         <v>42238</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31082</v>
+        <v>30012</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55555</v>
+        <v>55779</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1574008949149008</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.115827379034002</v>
+        <v>0.1118401579273589</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2070269632453935</v>
+        <v>0.2078604605515794</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -1428,19 +1428,19 @@
         <v>104864</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86373</v>
+        <v>85865</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>123893</v>
+        <v>124474</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1544294668547869</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1271993260079939</v>
+        <v>0.1264511708854593</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1824540795968819</v>
+        <v>0.1833089891197922</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>75257</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60820</v>
+        <v>59641</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93698</v>
+        <v>93121</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1832459685974381</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1480915492671193</v>
+        <v>0.1452218710355437</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2281471130514608</v>
+        <v>0.2267413437626167</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -1478,19 +1478,19 @@
         <v>42453</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>31045</v>
+        <v>31385</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56515</v>
+        <v>55737</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1582021017818586</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1156893729625936</v>
+        <v>0.1169563329495075</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2106017835587808</v>
+        <v>0.2077037426875996</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>108</v>
@@ -1499,19 +1499,19 @@
         <v>117711</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>96072</v>
+        <v>99804</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>137362</v>
+        <v>141887</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1733489257943762</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1414824549414753</v>
+        <v>0.1469779333550846</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.202288091427259</v>
+        <v>0.2089531833280661</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>69567</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54560</v>
+        <v>55169</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84842</v>
+        <v>86083</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2183308309523981</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1712340146254567</v>
+        <v>0.1731455049857598</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2662708605955631</v>
+        <v>0.2701673249482222</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -1624,19 +1624,19 @@
         <v>39898</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28543</v>
+        <v>27031</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51410</v>
+        <v>52016</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.187946482590568</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1344572487234849</v>
+        <v>0.1273360168945502</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.242176309582949</v>
+        <v>0.2450312110498749</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>97</v>
@@ -1645,19 +1645,19 @@
         <v>109465</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90276</v>
+        <v>90748</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>131014</v>
+        <v>129081</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.206181796089711</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1700379350068456</v>
+        <v>0.1709276783543705</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2467708294814004</v>
+        <v>0.2431304487430171</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>48175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36232</v>
+        <v>35251</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63053</v>
+        <v>62822</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1511952377928371</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1137126744188483</v>
+        <v>0.1106324677513331</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1978880791981784</v>
+        <v>0.1971638913310311</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>35</v>
@@ -1695,19 +1695,19 @@
         <v>39258</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28409</v>
+        <v>27713</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>51668</v>
+        <v>52060</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.18493392066472</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1338278937117834</v>
+        <v>0.1305483102695969</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2433916353498255</v>
+        <v>0.2452385351256823</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>77</v>
@@ -1716,19 +1716,19 @@
         <v>87434</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>69047</v>
+        <v>67958</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>106955</v>
+        <v>107087</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1646854870998314</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1300522327167326</v>
+        <v>0.1280011181892182</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2014544983938021</v>
+        <v>0.2017033023168464</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>87788</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>70877</v>
+        <v>71666</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>104106</v>
+        <v>104396</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2755171572154686</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2224415007370187</v>
+        <v>0.2249206084767869</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3267314606279286</v>
+        <v>0.3276414708117214</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>48</v>
@@ -1766,19 +1766,19 @@
         <v>54203</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41202</v>
+        <v>41681</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>67927</v>
+        <v>70555</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2553318193472859</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1940913303003302</v>
+        <v>0.1963470685956623</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3199829728527716</v>
+        <v>0.3323611937882698</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>129</v>
@@ -1787,19 +1787,19 @@
         <v>141991</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>120767</v>
+        <v>121228</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>164172</v>
+        <v>164289</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2674461474128118</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2274691605817433</v>
+        <v>0.2283374457272121</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3092255046632714</v>
+        <v>0.3094463072599844</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>40075</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29298</v>
+        <v>28355</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53728</v>
+        <v>53765</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1257713029605971</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09194834883844256</v>
+        <v>0.08899090476318668</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1686219857633428</v>
+        <v>0.1687391321280785</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -1837,19 +1837,19 @@
         <v>26877</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18065</v>
+        <v>18193</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37313</v>
+        <v>37837</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1266079867417282</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08509639229895609</v>
+        <v>0.085701149482411</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1757694591672362</v>
+        <v>0.1782393547363598</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -1858,19 +1858,19 @@
         <v>66951</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>53073</v>
+        <v>53015</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>84576</v>
+        <v>82998</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1261058469272788</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09996480634708453</v>
+        <v>0.09985568311842179</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1593021294439204</v>
+        <v>0.1563299762336897</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>73025</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>58100</v>
+        <v>58276</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>90021</v>
+        <v>91042</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2291854710786991</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1823442151504178</v>
+        <v>0.182895981827303</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2825249890510622</v>
+        <v>0.2857296731817778</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>45</v>
@@ -1908,19 +1908,19 @@
         <v>52048</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40322</v>
+        <v>39343</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>67298</v>
+        <v>66961</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2451797906556979</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1899457609417709</v>
+        <v>0.1853306291527015</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3170206676050241</v>
+        <v>0.315433048841834</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>111</v>
@@ -1929,19 +1929,19 @@
         <v>125073</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>103271</v>
+        <v>105330</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>145217</v>
+        <v>147371</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2355807224703671</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1945147305979677</v>
+        <v>0.1983928917338363</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2735235057674712</v>
+        <v>0.2775800612242754</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>64008</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>49885</v>
+        <v>50048</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80325</v>
+        <v>81567</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1544836588188542</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1203988104377616</v>
+        <v>0.1207917045935037</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1938664877179137</v>
+        <v>0.1968631969477716</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>78</v>
@@ -2054,19 +2054,19 @@
         <v>81556</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>66331</v>
+        <v>66771</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>97410</v>
+        <v>99626</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2739733892446956</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2228287871198016</v>
+        <v>0.2243045432622616</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3272329080472289</v>
+        <v>0.3346761194684847</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>139</v>
@@ -2075,19 +2075,19 @@
         <v>145564</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>124435</v>
+        <v>125823</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>170735</v>
+        <v>169350</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2044401223831812</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.174765211453231</v>
+        <v>0.1767147959570932</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2397930593003163</v>
+        <v>0.2378472069358665</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>76146</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>60828</v>
+        <v>61447</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>92916</v>
+        <v>93493</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1837792198278969</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1468105917497893</v>
+        <v>0.1483028436538644</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2242547003408727</v>
+        <v>0.2256466519493944</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>41</v>
@@ -2125,19 +2125,19 @@
         <v>41949</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>30667</v>
+        <v>30685</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>54936</v>
+        <v>55299</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1409193761097147</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1030202420220142</v>
+        <v>0.1030800149435779</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1845472184401716</v>
+        <v>0.1857669610923647</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>113</v>
@@ -2146,19 +2146,19 @@
         <v>118094</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>99734</v>
+        <v>101379</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>143424</v>
+        <v>140474</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1658603056797981</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1400734761421066</v>
+        <v>0.1423838230525447</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2014349197864256</v>
+        <v>0.1972923025343635</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>146350</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>128639</v>
+        <v>124913</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>168478</v>
+        <v>166277</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3532192395995639</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3104737474997569</v>
+        <v>0.301481102340458</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4066261329895578</v>
+        <v>0.4013125608719152</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>89</v>
@@ -2196,19 +2196,19 @@
         <v>92918</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>77353</v>
+        <v>76472</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>108662</v>
+        <v>109399</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3121430886328198</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2598541348372361</v>
+        <v>0.2568947737855638</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3650291511131686</v>
+        <v>0.3675082211810342</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>233</v>
@@ -2217,19 +2217,19 @@
         <v>239268</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>212016</v>
+        <v>213915</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>264204</v>
+        <v>265745</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3360460546587335</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2977704344920057</v>
+        <v>0.3004381763223355</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3710668475768624</v>
+        <v>0.373231050517952</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>83151</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>67986</v>
+        <v>67119</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>100421</v>
+        <v>101306</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2006872531903503</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.164086496589904</v>
+        <v>0.1619941687079696</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2423686135386057</v>
+        <v>0.2445044775767088</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>54</v>
@@ -2267,19 +2267,19 @@
         <v>58440</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>45495</v>
+        <v>44511</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>73827</v>
+        <v>72856</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1963188359710615</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1528337943178862</v>
+        <v>0.1495281155333266</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2480095320116778</v>
+        <v>0.2447457638156911</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>135</v>
@@ -2288,19 +2288,19 @@
         <v>141591</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>120507</v>
+        <v>120249</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>162793</v>
+        <v>163903</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1988608981147179</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1692485269319327</v>
+        <v>0.1688870251971369</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2286383164362079</v>
+        <v>0.2301978633895941</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>44678</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32864</v>
+        <v>32401</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>59216</v>
+        <v>59893</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1078306285633346</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0793183453116931</v>
+        <v>0.07820145054116036</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1429192428037278</v>
+        <v>0.144552973776464</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -2338,19 +2338,19 @@
         <v>22816</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14769</v>
+        <v>14234</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>32208</v>
+        <v>33845</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07664531004170859</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04961263399489749</v>
+        <v>0.04781683975877787</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1081963818341807</v>
+        <v>0.1136959857124511</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>64</v>
@@ -2359,19 +2359,19 @@
         <v>67493</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>52579</v>
+        <v>52620</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>83927</v>
+        <v>84672</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09479261916356932</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07384540993444068</v>
+        <v>0.07390353306984553</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1178731153656225</v>
+        <v>0.1189191750979226</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>263343</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>235593</v>
+        <v>234496</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>298002</v>
+        <v>296358</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1864253242227741</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1667804303087455</v>
+        <v>0.1660044929964384</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2109615613822207</v>
+        <v>0.2097977227299648</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>203</v>
@@ -2484,19 +2484,19 @@
         <v>220885</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>196608</v>
+        <v>194579</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>249245</v>
+        <v>248777</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2350874220191967</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2092490845049665</v>
+        <v>0.2070896208535951</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2652710481449569</v>
+        <v>0.2647734975044537</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>444</v>
@@ -2505,19 +2505,19 @@
         <v>484228</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>445524</v>
+        <v>445672</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>526425</v>
+        <v>527071</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2058635809916918</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1894090491938789</v>
+        <v>0.1894721067770157</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.223803234996013</v>
+        <v>0.2240780362897513</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>258212</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>227986</v>
+        <v>225673</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>287639</v>
+        <v>286576</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.182792888714896</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.161395619925523</v>
+        <v>0.1597580667372284</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2036252186867452</v>
+        <v>0.202872785557905</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>150</v>
@@ -2555,19 +2555,19 @@
         <v>162057</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>139217</v>
+        <v>139469</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>185017</v>
+        <v>188293</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1724772125459423</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1481688221017496</v>
+        <v>0.1484371300508388</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1969131458012179</v>
+        <v>0.200399977470362</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>389</v>
@@ -2576,19 +2576,19 @@
         <v>420269</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>381597</v>
+        <v>382345</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>460831</v>
+        <v>459546</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1786722533293029</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1622315018847116</v>
+        <v>0.1625496066013592</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1959170083321961</v>
+        <v>0.1953706550227503</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>441591</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>407325</v>
+        <v>406600</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>477904</v>
+        <v>478238</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3126104178436344</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2883532155723879</v>
+        <v>0.2878395448966153</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3383176234970022</v>
+        <v>0.3385538504765535</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>252</v>
@@ -2626,19 +2626,19 @@
         <v>272063</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>245423</v>
+        <v>242425</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>300835</v>
+        <v>299832</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2895561723600197</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.261203732821882</v>
+        <v>0.2580128766556017</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3201778303172443</v>
+        <v>0.3191109129590534</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>675</v>
@@ -2647,19 +2647,19 @@
         <v>713654</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>665761</v>
+        <v>672703</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>763236</v>
+        <v>759845</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3034013133533403</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2830402046872776</v>
+        <v>0.2859915663071325</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3244806317906721</v>
+        <v>0.3230392115672717</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>226349</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>199527</v>
+        <v>198176</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>256090</v>
+        <v>256156</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1602366205084599</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1412490314893687</v>
+        <v>0.1402922870565594</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.181291171370091</v>
+        <v>0.1813376102047514</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>142</v>
@@ -2697,19 +2697,19 @@
         <v>151640</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>129493</v>
+        <v>130821</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>177162</v>
+        <v>175776</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1613904522311733</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1378195533404894</v>
+        <v>0.1392327475702059</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1885534882180653</v>
+        <v>0.1870781619546229</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>358</v>
@@ -2718,19 +2718,19 @@
         <v>377989</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>340623</v>
+        <v>343585</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>412833</v>
+        <v>416281</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1606975229008733</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1448117455019129</v>
+        <v>0.1460709713016198</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1755110044761131</v>
+        <v>0.176977090344929</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>223097</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>196961</v>
+        <v>196919</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>254746</v>
+        <v>252502</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1579347487102357</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1394324298837562</v>
+        <v>0.1394026936249459</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1803395717448459</v>
+        <v>0.1787509942399701</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>120</v>
@@ -2768,19 +2768,19 @@
         <v>132941</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>113687</v>
+        <v>109575</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>158622</v>
+        <v>154721</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.141488740843668</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1209969144315044</v>
+        <v>0.1166206840029227</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1688209119322432</v>
+        <v>0.164669683229772</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>327</v>
@@ -2789,19 +2789,19 @@
         <v>356038</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>320710</v>
+        <v>320924</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>392461</v>
+        <v>395085</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1513653294247917</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1363460023361868</v>
+        <v>0.1364371732283828</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1668500243995555</v>
+        <v>0.1679656166321339</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>45044</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33833</v>
+        <v>34136</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58830</v>
+        <v>58693</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1866550786019425</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1402000333911422</v>
+        <v>0.1414540140384754</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2437838844477319</v>
+        <v>0.243215973043355</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -3154,19 +3154,19 @@
         <v>42314</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32552</v>
+        <v>32677</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53089</v>
+        <v>54083</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2576490912720033</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1982047270681493</v>
+        <v>0.1989701954698701</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3232551931985463</v>
+        <v>0.3293110944871662</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>88</v>
@@ -3175,19 +3175,19 @@
         <v>87358</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72827</v>
+        <v>71626</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>104660</v>
+        <v>103524</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2154047402998465</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1795734027139136</v>
+        <v>0.1766137293471357</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2580676349630345</v>
+        <v>0.2552655572366571</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>40609</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30264</v>
+        <v>29481</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54125</v>
+        <v>54151</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.168276188295671</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1254085825602479</v>
+        <v>0.1221662991338798</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2242875300556961</v>
+        <v>0.2243927598162926</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -3225,19 +3225,19 @@
         <v>36488</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27069</v>
+        <v>26806</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48559</v>
+        <v>47590</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.222173538157357</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1648245731671853</v>
+        <v>0.1632219908341656</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2956756989118819</v>
+        <v>0.2897726342252528</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>76</v>
@@ -3246,19 +3246,19 @@
         <v>77097</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>61924</v>
+        <v>61939</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>94076</v>
+        <v>92402</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.190102403164499</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.152689332232001</v>
+        <v>0.1527265892957392</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2319695584279113</v>
+        <v>0.2278427744830519</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>71890</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>58158</v>
+        <v>58446</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>86868</v>
+        <v>86214</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2979017306691109</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2409977537265441</v>
+        <v>0.2421899031460865</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3599667274217214</v>
+        <v>0.3572592473536062</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>43</v>
@@ -3296,19 +3296,19 @@
         <v>41249</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30509</v>
+        <v>30792</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>52663</v>
+        <v>52926</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2511641784241007</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1857686965393197</v>
+        <v>0.1874921994832933</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3206592014595389</v>
+        <v>0.3222655539511875</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>111</v>
@@ -3317,19 +3317,19 @@
         <v>113139</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>97346</v>
+        <v>95010</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>130930</v>
+        <v>133036</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2789749400131601</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2400331801960345</v>
+        <v>0.2342726744005214</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3228435467164295</v>
+        <v>0.3280367726048766</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>58841</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46717</v>
+        <v>45593</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74084</v>
+        <v>72609</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2438278811292623</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1935905327581815</v>
+        <v>0.1889304078649363</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3069930523462797</v>
+        <v>0.3008833001859156</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -3367,19 +3367,19 @@
         <v>30260</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21695</v>
+        <v>20996</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41981</v>
+        <v>40657</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1842509591759641</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.132096995367592</v>
+        <v>0.1278423598746763</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2556227617351938</v>
+        <v>0.2475568800526112</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -3388,19 +3388,19 @@
         <v>89101</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>74399</v>
+        <v>73745</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>108367</v>
+        <v>107961</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2197016726401052</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1834509313919591</v>
+        <v>0.1818373247890215</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2672085282666691</v>
+        <v>0.2662065680478379</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>24938</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15723</v>
+        <v>16638</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>36193</v>
+        <v>37772</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1033391213040132</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06515384457431841</v>
+        <v>0.06894635067932846</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1499786440679022</v>
+        <v>0.1565213173007625</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -3438,19 +3438,19 @@
         <v>13921</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8116</v>
+        <v>8019</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22362</v>
+        <v>21694</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08476223297057496</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04942015335019286</v>
+        <v>0.04882623420064863</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1361600167754127</v>
+        <v>0.1320910752749141</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>38</v>
@@ -3459,19 +3459,19 @@
         <v>38859</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26209</v>
+        <v>27882</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>50434</v>
+        <v>52455</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0958162438823892</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06462643220229961</v>
+        <v>0.068749967635838</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1243587418028128</v>
+        <v>0.1293415250993787</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>104645</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86633</v>
+        <v>87577</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>124805</v>
+        <v>122895</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2532280435144379</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2096411205942198</v>
+        <v>0.2119241859834648</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3020117761726879</v>
+        <v>0.2973883164886179</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -3584,19 +3584,19 @@
         <v>77156</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63254</v>
+        <v>62217</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91661</v>
+        <v>92549</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2828822486361268</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.231912465133581</v>
+        <v>0.2281093495138158</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3360601334006675</v>
+        <v>0.3393153974556256</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>170</v>
@@ -3605,19 +3605,19 @@
         <v>181802</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>157972</v>
+        <v>158893</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>206320</v>
+        <v>207868</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2650185002905975</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2302806253482826</v>
+        <v>0.2316230631317522</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3007597293172992</v>
+        <v>0.3030165933923622</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>65140</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>51116</v>
+        <v>49779</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>82090</v>
+        <v>81028</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1576293148426091</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1236946459770447</v>
+        <v>0.1204583739230333</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1986479769970103</v>
+        <v>0.1960770869805039</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>48</v>
@@ -3655,19 +3655,19 @@
         <v>50066</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>37837</v>
+        <v>38052</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>63731</v>
+        <v>64779</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1835608648667572</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1387253565849856</v>
+        <v>0.1395112717455183</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2336590640329644</v>
+        <v>0.2375021085721297</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>109</v>
@@ -3676,19 +3676,19 @@
         <v>115206</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>96957</v>
+        <v>95969</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>137722</v>
+        <v>136189</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1679396508790629</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1413368296633304</v>
+        <v>0.1398973590486109</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2007615628045439</v>
+        <v>0.1985276201354175</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>113365</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>94574</v>
+        <v>95298</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>134262</v>
+        <v>131436</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.274326972882288</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2288560093349904</v>
+        <v>0.2306079642236659</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3248964444485875</v>
+        <v>0.3180585502557077</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>73</v>
@@ -3726,19 +3726,19 @@
         <v>72429</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>58192</v>
+        <v>58238</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>87493</v>
+        <v>87495</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2655489298043791</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2133504121186816</v>
+        <v>0.2135211222315508</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3207792751004896</v>
+        <v>0.3207856681502447</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>175</v>
@@ -3747,19 +3747,19 @@
         <v>185793</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>162100</v>
+        <v>164495</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>209151</v>
+        <v>212377</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.270836839288599</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2362986292877874</v>
+        <v>0.2397899516889435</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3048867942105932</v>
+        <v>0.3095881640483927</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>84424</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68796</v>
+        <v>67749</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104127</v>
+        <v>102309</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.204295407513381</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1664781897455696</v>
+        <v>0.1639434908890919</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2519745370917825</v>
+        <v>0.2475745371349919</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -3797,19 +3797,19 @@
         <v>52043</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40695</v>
+        <v>40919</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65751</v>
+        <v>65726</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.190807272603234</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1492006720817279</v>
+        <v>0.1500231634626618</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2410665425775521</v>
+        <v>0.2409745660657449</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>123</v>
@@ -3818,19 +3818,19 @@
         <v>136467</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>113640</v>
+        <v>116062</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>156820</v>
+        <v>161488</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.198932550171682</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1656572088655114</v>
+        <v>0.1691873948898049</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2286009974382281</v>
+        <v>0.2354058834999804</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>45672</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>32772</v>
+        <v>33820</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59601</v>
+        <v>60466</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.110520261247284</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07930331100521104</v>
+        <v>0.08183908726413285</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1442263685344164</v>
+        <v>0.1463199637850149</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -3868,19 +3868,19 @@
         <v>21057</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12758</v>
+        <v>13189</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31271</v>
+        <v>31531</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07720068408950287</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04677544247617757</v>
+        <v>0.04835652847464865</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1146515199313075</v>
+        <v>0.1156029862416935</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>60</v>
@@ -3889,19 +3889,19 @@
         <v>66729</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>51561</v>
+        <v>50958</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>84098</v>
+        <v>83599</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09727245937005864</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07516258596007501</v>
+        <v>0.0742830801888171</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1225919961559719</v>
+        <v>0.1218649002802041</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>76837</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>62296</v>
+        <v>60876</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>95587</v>
+        <v>94564</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2118050368292707</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.171724145078921</v>
+        <v>0.1678074451911524</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.26349188918087</v>
+        <v>0.2606729421548861</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -4014,19 +4014,19 @@
         <v>43184</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31970</v>
+        <v>31290</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56859</v>
+        <v>56788</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1602220135177861</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1186161427829033</v>
+        <v>0.1160933178809473</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2109601415432488</v>
+        <v>0.2106973141398859</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>110</v>
@@ -4035,19 +4035,19 @@
         <v>120020</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>100552</v>
+        <v>99034</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141657</v>
+        <v>140948</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1898170499476014</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1590275703514513</v>
+        <v>0.1566263152264492</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2240368759348171</v>
+        <v>0.2229149869397444</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>58403</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43749</v>
+        <v>46351</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>72527</v>
+        <v>76359</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1609924499737431</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1205975525310129</v>
+        <v>0.1277686344597847</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1999256776363592</v>
+        <v>0.2104887584168033</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>62</v>
@@ -4085,19 +4085,19 @@
         <v>63138</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50949</v>
+        <v>49201</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>78890</v>
+        <v>78152</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2342565653862887</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1890348770250445</v>
+        <v>0.1825471042481843</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2927017900539953</v>
+        <v>0.289962677359444</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>115</v>
@@ -4106,19 +4106,19 @@
         <v>121541</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>102442</v>
+        <v>102553</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>144179</v>
+        <v>142393</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1922223063328894</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1620165253898933</v>
+        <v>0.1621926448823215</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2280244869608642</v>
+        <v>0.2252013456140223</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>133025</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>114240</v>
+        <v>112589</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>152836</v>
+        <v>151631</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3666927445746125</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3149098391549138</v>
+        <v>0.3103601686103101</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.421301952167359</v>
+        <v>0.4179823913503966</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>92</v>
@@ -4156,19 +4156,19 @@
         <v>93714</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>78197</v>
+        <v>78698</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>109233</v>
+        <v>110501</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3477018618823309</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2901317130321304</v>
+        <v>0.2919899343232796</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4052804400633754</v>
+        <v>0.4099842957265629</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>210</v>
@@ -4177,19 +4177,19 @@
         <v>226739</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>201349</v>
+        <v>203192</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>253222</v>
+        <v>253847</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3585976145744243</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3184423444711887</v>
+        <v>0.3213568370806226</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.400480783333668</v>
+        <v>0.4014706674957786</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>48733</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>36313</v>
+        <v>36124</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62248</v>
+        <v>62944</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1343369730397947</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.100098605435711</v>
+        <v>0.09957713076005097</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1715908516496449</v>
+        <v>0.1735089471552883</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -4227,19 +4227,19 @@
         <v>45081</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33537</v>
+        <v>34111</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59792</v>
+        <v>59234</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1672609878384158</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.124428799001811</v>
+        <v>0.126561934957823</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.221843711886976</v>
+        <v>0.2197736317667715</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>89</v>
@@ -4248,19 +4248,19 @@
         <v>93814</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>75717</v>
+        <v>76440</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>112521</v>
+        <v>112247</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1483712959431362</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1197503751931103</v>
+        <v>0.1208923854974199</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1779564747193553</v>
+        <v>0.1775235189135146</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>45772</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33247</v>
+        <v>32692</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>60208</v>
+        <v>60086</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.126172795582579</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09164776785798696</v>
+        <v>0.09011736434015642</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1659665930466372</v>
+        <v>0.1656318433241941</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -4298,19 +4298,19 @@
         <v>24408</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16262</v>
+        <v>15600</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35436</v>
+        <v>34821</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09055857137517845</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06033598963665924</v>
+        <v>0.05787840720057864</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.131476676770684</v>
+        <v>0.1291962451657827</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>66</v>
@@ -4319,19 +4319,19 @@
         <v>70179</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>54450</v>
+        <v>55099</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>87568</v>
+        <v>88355</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1109917332019487</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08611492053638857</v>
+        <v>0.08714166495936299</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1384918452053258</v>
+        <v>0.1397375665757201</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>101280</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>85348</v>
+        <v>86411</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>119453</v>
+        <v>121496</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2538348786790341</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2139047315308948</v>
+        <v>0.2165678865083292</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2993805586988036</v>
+        <v>0.3044997229694833</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>91</v>
@@ -4444,19 +4444,19 @@
         <v>97799</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>81408</v>
+        <v>81478</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>115990</v>
+        <v>116293</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.300482978767809</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2501221264290241</v>
+        <v>0.2503370749376226</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.356373701018331</v>
+        <v>0.3573043527408056</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>189</v>
@@ -4465,19 +4465,19 @@
         <v>199080</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>176742</v>
+        <v>174218</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>221923</v>
+        <v>223974</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2747917860829385</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2439592581860638</v>
+        <v>0.2404747406914939</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3063220518004647</v>
+        <v>0.3091534880174091</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>80387</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>64159</v>
+        <v>63703</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>96326</v>
+        <v>96397</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2014718995222412</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1608000185309948</v>
+        <v>0.1596574804856579</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2414177911331459</v>
+        <v>0.241595362353222</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>42</v>
@@ -4515,19 +4515,19 @@
         <v>44338</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>31718</v>
+        <v>32027</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>58714</v>
+        <v>57071</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1362254736816174</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09745184705978346</v>
+        <v>0.09839972777280727</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.180394909453635</v>
+        <v>0.1753475200664351</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>119</v>
@@ -4536,19 +4536,19 @@
         <v>124725</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>106497</v>
+        <v>107522</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>145862</v>
+        <v>146926</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1721595952231278</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1469982878266232</v>
+        <v>0.1484135157923943</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2013350886429729</v>
+        <v>0.2028039442042639</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>108608</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>92609</v>
+        <v>92878</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>126932</v>
+        <v>128364</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2722000732389704</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.232102845701587</v>
+        <v>0.2327771155727849</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3181238811280117</v>
+        <v>0.3217125707738691</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>89</v>
@@ -4586,19 +4586,19 @@
         <v>93591</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>76820</v>
+        <v>77643</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>111074</v>
+        <v>111313</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2875516854688836</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2360259663372109</v>
+        <v>0.2385543579937964</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3412679860350477</v>
+        <v>0.3420015441169931</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>196</v>
@@ -4607,19 +4607,19 @@
         <v>202199</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>178314</v>
+        <v>180023</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>226912</v>
+        <v>228971</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2790968667930632</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.246128078421168</v>
+        <v>0.24848688157458</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3132091788951247</v>
+        <v>0.3160503804476798</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>65111</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51333</v>
+        <v>51258</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>82231</v>
+        <v>78623</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1631851952446884</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1286531782801946</v>
+        <v>0.1284646422358847</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2060923776876899</v>
+        <v>0.197050578193296</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -4657,19 +4657,19 @@
         <v>51787</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39372</v>
+        <v>39125</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66420</v>
+        <v>65846</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1591115744998187</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1209669085926801</v>
+        <v>0.1202099054543604</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2040715054729042</v>
+        <v>0.2023089362466238</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>116</v>
@@ -4678,19 +4678,19 @@
         <v>116898</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>97693</v>
+        <v>97185</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>136922</v>
+        <v>136864</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1613550994297165</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1348464760791605</v>
+        <v>0.1341458870813755</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1889950441073432</v>
+        <v>0.1889151902606322</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>43614</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32319</v>
+        <v>32305</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>58479</v>
+        <v>58748</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1093079533150658</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08100077632196197</v>
+        <v>0.08096578044255906</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1465634404623138</v>
+        <v>0.147238403268136</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>36</v>
@@ -4728,19 +4728,19 @@
         <v>37959</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26974</v>
+        <v>27485</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>50580</v>
+        <v>51439</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1166282875818713</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08287627444910399</v>
+        <v>0.08444495783777307</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.155404292672267</v>
+        <v>0.1580445293467427</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>78</v>
@@ -4749,19 +4749,19 @@
         <v>81573</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>64847</v>
+        <v>65774</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>100693</v>
+        <v>101997</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.112596652471154</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08950881046563917</v>
+        <v>0.09078853804390788</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1389875217022262</v>
+        <v>0.1407870739710793</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>327806</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>295739</v>
+        <v>298787</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>359498</v>
+        <v>366090</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2314462774099774</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2088058117873096</v>
+        <v>0.2109573479358015</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2538223645943802</v>
+        <v>0.2584769372453822</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>253</v>
@@ -4874,19 +4874,19 @@
         <v>260454</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>233368</v>
+        <v>233202</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>288551</v>
+        <v>290425</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2523822850810882</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2261355640483041</v>
+        <v>0.2259746254508813</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2796088424533376</v>
+        <v>0.2814247485902545</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>557</v>
@@ -4895,19 +4895,19 @@
         <v>588260</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>548973</v>
+        <v>540595</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>632011</v>
+        <v>629164</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2402709365997914</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2242244589271327</v>
+        <v>0.2208024391185615</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2581407308344519</v>
+        <v>0.256977935675242</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>244539</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>216352</v>
+        <v>214765</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>277737</v>
+        <v>272105</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1726558091181139</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1527546199995671</v>
+        <v>0.1516343172124934</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1960955147887831</v>
+        <v>0.1921189619949118</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>190</v>
@@ -4945,19 +4945,19 @@
         <v>194030</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>170194</v>
+        <v>167918</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>221503</v>
+        <v>221662</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1880170599121515</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1649195533599453</v>
+        <v>0.1627141238929888</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.214637981870043</v>
+        <v>0.2147922964378869</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>419</v>
@@ -4966,19 +4966,19 @@
         <v>438569</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>402996</v>
+        <v>402636</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>478352</v>
+        <v>482728</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1791306731474052</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1646013658404589</v>
+        <v>0.1644540421049672</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1953798190031194</v>
+        <v>0.1971672914375739</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>426887</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>389511</v>
+        <v>391689</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>462794</v>
+        <v>463272</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3014024140017686</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2750130688084947</v>
+        <v>0.2765509700683779</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3267539252927733</v>
+        <v>0.3270913127634762</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>297</v>
@@ -5016,19 +5016,19 @@
         <v>300983</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>273497</v>
+        <v>274960</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>335514</v>
+        <v>333680</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2916550932061491</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2650209434403253</v>
+        <v>0.2664389779249661</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3251158255631336</v>
+        <v>0.3233390920975265</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>692</v>
@@ -5037,19 +5037,19 @@
         <v>727870</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>685342</v>
+        <v>683275</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>772636</v>
+        <v>776989</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2972938568505491</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2799237628283521</v>
+        <v>0.2790794279545913</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3155781639794837</v>
+        <v>0.3173562666385464</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>257109</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>227805</v>
+        <v>223879</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>287463</v>
+        <v>286813</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1815311899661768</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1608408595389476</v>
+        <v>0.1580692590286832</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2029625542876175</v>
+        <v>0.2025033376148514</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>173</v>
@@ -5087,19 +5087,19 @@
         <v>179170</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>155425</v>
+        <v>155282</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>203215</v>
+        <v>204132</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1736178372774181</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1506079745434218</v>
+        <v>0.1504692981961596</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.19691690317254</v>
+        <v>0.1978061755745335</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>415</v>
@@ -5108,19 +5108,19 @@
         <v>436280</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>400779</v>
+        <v>400223</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>479535</v>
+        <v>477899</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1781956619312185</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1636954980084617</v>
+        <v>0.1634684711530223</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1958630974242647</v>
+        <v>0.1951948960143904</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>159996</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>136487</v>
+        <v>137326</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>184460</v>
+        <v>185706</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1129643095039631</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09636586941005647</v>
+        <v>0.09695873126030964</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1302377063382563</v>
+        <v>0.1311171777921776</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>95</v>
@@ -5158,19 +5158,19 @@
         <v>97345</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>79818</v>
+        <v>82048</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>119750</v>
+        <v>117637</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09432772452319305</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07734482028223254</v>
+        <v>0.07950545533022808</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1160388330650902</v>
+        <v>0.11399166491081</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>242</v>
@@ -5179,19 +5179,19 @@
         <v>257340</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>228863</v>
+        <v>228496</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>290540</v>
+        <v>291231</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1051088714710358</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09347746243529492</v>
+        <v>0.09332768279428919</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1186693391423329</v>
+        <v>0.1189516115668698</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>27443</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17445</v>
+        <v>18228</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38996</v>
+        <v>40887</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2808542526768023</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1785410669896548</v>
+        <v>0.1865479713322423</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3990995762143661</v>
+        <v>0.4184441940222532</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -5544,19 +5544,19 @@
         <v>31296</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23210</v>
+        <v>23543</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39891</v>
+        <v>40248</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4045782114695711</v>
+        <v>0.4045782114695712</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3000491827565712</v>
+        <v>0.3043590000976484</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5156958591941572</v>
+        <v>0.5203032786235317</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -5565,19 +5565,19 @@
         <v>58738</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45396</v>
+        <v>46546</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73520</v>
+        <v>72970</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3355228883241135</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2593109528138158</v>
+        <v>0.2658792617926475</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4199611018084228</v>
+        <v>0.4168171532227117</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>14263</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7763</v>
+        <v>8244</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22717</v>
+        <v>24201</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1459702417470291</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07944544491261461</v>
+        <v>0.08437597707372577</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2324892240718105</v>
+        <v>0.2476772511669384</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -5615,19 +5615,19 @@
         <v>6154</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3000</v>
+        <v>3190</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11027</v>
+        <v>11239</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07955133687809016</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03878795243706161</v>
+        <v>0.04123799467273268</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1425551225501832</v>
+        <v>0.1452951784790516</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -5636,19 +5636,19 @@
         <v>20417</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13361</v>
+        <v>13363</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30130</v>
+        <v>29485</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1166224020415826</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07632130395180729</v>
+        <v>0.0763308365708141</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1721061847402419</v>
+        <v>0.1684235173470754</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>27622</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17929</v>
+        <v>17052</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39118</v>
+        <v>39666</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2826860889253032</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1834874515719542</v>
+        <v>0.1745190462347105</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4003417313876572</v>
+        <v>0.4059506805592833</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -5686,19 +5686,19 @@
         <v>22331</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14988</v>
+        <v>15340</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31582</v>
+        <v>31078</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2886906666554103</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1937590331889557</v>
+        <v>0.1983117889133525</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.408283992644573</v>
+        <v>0.4017588629383784</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -5707,19 +5707,19 @@
         <v>49953</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>38095</v>
+        <v>37508</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63288</v>
+        <v>64865</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2853392700500117</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2176067239698914</v>
+        <v>0.2142500844026216</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3615105755008762</v>
+        <v>0.3705181692715201</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>17690</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8646</v>
+        <v>8436</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32715</v>
+        <v>31496</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1810460455549711</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0884843695690882</v>
+        <v>0.08633467904990141</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3348156392592397</v>
+        <v>0.3223345145587425</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -5757,19 +5757,19 @@
         <v>15618</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9997</v>
+        <v>10092</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23091</v>
+        <v>23353</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2019066116351818</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1292419055291298</v>
+        <v>0.1304704185998515</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2985062934558664</v>
+        <v>0.3018968822381212</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -5778,19 +5778,19 @@
         <v>33308</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22610</v>
+        <v>22821</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46251</v>
+        <v>48707</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1902634897554581</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1291540060585234</v>
+        <v>0.13035781454395</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2641905464626332</v>
+        <v>0.2782230556020399</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>10694</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3638</v>
+        <v>3941</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23353</v>
+        <v>24342</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1094433710958942</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03723644749110172</v>
+        <v>0.04032925750148935</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.238998776815713</v>
+        <v>0.2491210943799091</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -5828,19 +5828,19 @@
         <v>1955</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5617</v>
+        <v>5676</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.02527317336174669</v>
+        <v>0.0252731733617467</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006302465706129744</v>
+        <v>0.006226080524325381</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07261475827884041</v>
+        <v>0.07337758815872832</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -5849,19 +5849,19 @@
         <v>12649</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4696</v>
+        <v>4947</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27356</v>
+        <v>26500</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07225194982883411</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02682345626603044</v>
+        <v>0.02825968676506628</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1562646771941543</v>
+        <v>0.1513712660080489</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>58618</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43822</v>
+        <v>44140</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72611</v>
+        <v>72673</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3486937256180324</v>
+        <v>0.3486937256180322</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2606786873846169</v>
+        <v>0.2625706828524273</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4319345565692512</v>
+        <v>0.4323032547980794</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -5974,19 +5974,19 @@
         <v>39219</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30178</v>
+        <v>30593</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48280</v>
+        <v>49315</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3146540175664465</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2421176264165825</v>
+        <v>0.2454431916929323</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3873489022547235</v>
+        <v>0.395647280288229</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>95</v>
@@ -5995,19 +5995,19 @@
         <v>97837</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>80126</v>
+        <v>82970</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115825</v>
+        <v>115184</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3342007564441197</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2737005273290211</v>
+        <v>0.28341833204761</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.395647490861898</v>
+        <v>0.3934559344792293</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>29397</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20426</v>
+        <v>19736</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41707</v>
+        <v>41527</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1748697765569111</v>
+        <v>0.174869776556911</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1215072624078092</v>
+        <v>0.1173996496566492</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2480982329800348</v>
+        <v>0.2470315405605521</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -6045,19 +6045,19 @@
         <v>23023</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16088</v>
+        <v>16209</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31254</v>
+        <v>31891</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1847078098616422</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1290714453534452</v>
+        <v>0.1300402454520092</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2507502207615831</v>
+        <v>0.2558572363631431</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>55</v>
@@ -6066,19 +6066,19 @@
         <v>52419</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>40020</v>
+        <v>40556</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>67521</v>
+        <v>66377</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1790584820887363</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1367040320682719</v>
+        <v>0.1385334481313651</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2306435312252</v>
+        <v>0.2267362733883503</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>50886</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>37269</v>
+        <v>38695</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>64362</v>
+        <v>65707</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3027006059900882</v>
+        <v>0.3027006059900881</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2216990743470787</v>
+        <v>0.2301800866802169</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3828666246409642</v>
+        <v>0.3908666769569193</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>44</v>
@@ -6116,19 +6116,19 @@
         <v>32665</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>24900</v>
+        <v>24464</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>41640</v>
+        <v>41363</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2620651613464042</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1997711051241753</v>
+        <v>0.1962732667318374</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3340708594298714</v>
+        <v>0.3318514887437761</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>87</v>
@@ -6137,19 +6137,19 @@
         <v>83550</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>67482</v>
+        <v>69634</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>100078</v>
+        <v>100531</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2853993927806021</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2305113414522571</v>
+        <v>0.2378621252433557</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3418543772442076</v>
+        <v>0.3434034209571585</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>21421</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12114</v>
+        <v>12571</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33384</v>
+        <v>33392</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1274277975275641</v>
+        <v>0.127427797527564</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07206160309506872</v>
+        <v>0.07477798655927426</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1985908998350691</v>
+        <v>0.1986356600960003</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -6187,19 +6187,19 @@
         <v>16589</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10836</v>
+        <v>11155</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23761</v>
+        <v>24963</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1330935613372383</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08693460985780342</v>
+        <v>0.08949603709891991</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1906287850149561</v>
+        <v>0.2002776839417019</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -6208,19 +6208,19 @@
         <v>38011</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27233</v>
+        <v>27763</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>52515</v>
+        <v>51819</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1298400902568624</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09302638924601642</v>
+        <v>0.09483486178047024</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1793848239431921</v>
+        <v>0.177007885259523</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>7785</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3219</v>
+        <v>3303</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16331</v>
+        <v>15684</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04630809430740451</v>
+        <v>0.04630809430740448</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0191459658244882</v>
+        <v>0.01964560776154067</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09714472574963166</v>
+        <v>0.0932981209368613</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -6258,19 +6258,19 @@
         <v>13147</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8004</v>
+        <v>7382</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21217</v>
+        <v>20249</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1054794498882688</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06421824037698529</v>
+        <v>0.05922150589072279</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1702208175236724</v>
+        <v>0.1624523985978361</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -6279,19 +6279,19 @@
         <v>20932</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13053</v>
+        <v>13267</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>30800</v>
+        <v>30212</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07150127842967947</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04458698159497135</v>
+        <v>0.04531839297526869</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1052095688054297</v>
+        <v>0.1032001331095276</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>34672</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24245</v>
+        <v>22999</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47034</v>
+        <v>45530</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3759051635841515</v>
+        <v>0.3759051635841517</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2628556422170429</v>
+        <v>0.2493491450020374</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5099292482880607</v>
+        <v>0.493618001084428</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -6404,19 +6404,19 @@
         <v>25106</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17893</v>
+        <v>17987</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34617</v>
+        <v>34043</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2761200877361502</v>
+        <v>0.2761200877361503</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1967853412142388</v>
+        <v>0.1978197694546427</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3807202177566736</v>
+        <v>0.3744051707654646</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>54</v>
@@ -6425,19 +6425,19 @@
         <v>59779</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46875</v>
+        <v>46986</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75516</v>
+        <v>75156</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3263698665232344</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2559230470506368</v>
+        <v>0.256526524867874</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4122913734053181</v>
+        <v>0.4103265111992519</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>10700</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5624</v>
+        <v>5465</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19258</v>
+        <v>19066</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1160066978700992</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06097448507436041</v>
+        <v>0.05924439057301919</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2087882012948813</v>
+        <v>0.206701434503894</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -6475,19 +6475,19 @@
         <v>19008</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12423</v>
+        <v>12965</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27052</v>
+        <v>26407</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2090501173196148</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1366259215918616</v>
+        <v>0.1425863359298533</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.297523828178813</v>
+        <v>0.2904247990375383</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>32</v>
@@ -6496,19 +6496,19 @@
         <v>29708</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21064</v>
+        <v>21147</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>40963</v>
+        <v>40739</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1621953025569953</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1150024853892243</v>
+        <v>0.1154545711275383</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2236429133796205</v>
+        <v>0.2224180890355831</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>20288</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12401</v>
+        <v>12066</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31875</v>
+        <v>30258</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2199510771505325</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1344474095244005</v>
+        <v>0.1308102627741644</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3455786445632429</v>
+        <v>0.328042758016091</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -6546,19 +6546,19 @@
         <v>20200</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>13874</v>
+        <v>13363</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27309</v>
+        <v>27553</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2221564436081178</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1525899060499941</v>
+        <v>0.1469641583005948</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3003479898527076</v>
+        <v>0.3030317858602943</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>44</v>
@@ -6567,19 +6567,19 @@
         <v>40487</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>28443</v>
+        <v>30108</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>51204</v>
+        <v>53293</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2210458649399518</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1552909120905981</v>
+        <v>0.1643794554794546</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2795544979222698</v>
+        <v>0.2909614014272652</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>13808</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6650</v>
+        <v>6119</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24722</v>
+        <v>24012</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1497062047665097</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07210159195682504</v>
+        <v>0.0663403165481297</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2680263656621654</v>
+        <v>0.2603288619345233</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -6617,19 +6617,19 @@
         <v>7482</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3423</v>
+        <v>3614</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12895</v>
+        <v>13756</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08228813319768703</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03764748157395488</v>
+        <v>0.03975240834635298</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1418217507443399</v>
+        <v>0.151294425356022</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -6638,19 +6638,19 @@
         <v>21290</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12634</v>
+        <v>12628</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34430</v>
+        <v>32647</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.116238532631622</v>
+        <v>0.1162385326316221</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06897590110720488</v>
+        <v>0.06894712383526609</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1879772044780071</v>
+        <v>0.1782409630520271</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>12768</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6429</v>
+        <v>6033</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24790</v>
+        <v>22703</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1384308566287069</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06970149568655944</v>
+        <v>0.06540407018729001</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2687662267089962</v>
+        <v>0.2461397517832561</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -6688,19 +6688,19 @@
         <v>19129</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12273</v>
+        <v>12965</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27138</v>
+        <v>27821</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2103852181384302</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1349792632473797</v>
+        <v>0.1425902018250056</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2984620329316078</v>
+        <v>0.3059768218380582</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -6709,19 +6709,19 @@
         <v>31898</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>23056</v>
+        <v>21770</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>44697</v>
+        <v>44274</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1741504333481965</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1258763887862271</v>
+        <v>0.1188564359940941</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2440285169723928</v>
+        <v>0.2417206113723038</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>51279</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39765</v>
+        <v>39568</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63197</v>
+        <v>63535</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4438409382962686</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3441879790425241</v>
+        <v>0.3424800559042468</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5470020365896017</v>
+        <v>0.5499231509305266</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>42</v>
@@ -6834,19 +6834,19 @@
         <v>32707</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25130</v>
+        <v>25819</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41171</v>
+        <v>41833</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3465092572413512</v>
+        <v>0.3465092572413511</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2662296097488324</v>
+        <v>0.2735280119598308</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4361765804148469</v>
+        <v>0.4431867842832314</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>86</v>
@@ -6855,19 +6855,19 @@
         <v>83986</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>69358</v>
+        <v>70234</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>98331</v>
+        <v>99035</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4000764804477192</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3303963013037374</v>
+        <v>0.3345694389480012</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4684089759469723</v>
+        <v>0.4717628879326771</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>14834</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7852</v>
+        <v>9042</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>23443</v>
+        <v>23525</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1283972805333707</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06796457258844175</v>
+        <v>0.07826175777577267</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2029116644638787</v>
+        <v>0.2036222020125515</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>22</v>
@@ -6905,19 +6905,19 @@
         <v>15320</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9642</v>
+        <v>10236</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>22326</v>
+        <v>21834</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1623023567908066</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1021472962829932</v>
+        <v>0.108440039405593</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.236526969347664</v>
+        <v>0.2313135911150304</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>37</v>
@@ -6926,19 +6926,19 @@
         <v>30154</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>21350</v>
+        <v>22081</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>40289</v>
+        <v>40086</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1436424428961083</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1017024147938857</v>
+        <v>0.105186618167964</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1919203366506161</v>
+        <v>0.1909532948000002</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>26179</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17235</v>
+        <v>17722</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>36504</v>
+        <v>36932</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2265926413597684</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1491765756524102</v>
+        <v>0.1533963413823053</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3159598798474279</v>
+        <v>0.3196647640194376</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>37</v>
@@ -6976,19 +6976,19 @@
         <v>28127</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>20552</v>
+        <v>20865</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36875</v>
+        <v>37902</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2979825774688871</v>
+        <v>0.297982577468887</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2177307012727123</v>
+        <v>0.2210499003993155</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3906640082283356</v>
+        <v>0.4015410540140006</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>62</v>
@@ -6997,19 +6997,19 @@
         <v>54306</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>42920</v>
+        <v>43270</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>69131</v>
+        <v>67653</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2586925888362259</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2044551966159952</v>
+        <v>0.2061197349842829</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3293132507419491</v>
+        <v>0.3222739690086474</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>10124</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5483</v>
+        <v>5349</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18404</v>
+        <v>17122</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08762916421099748</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04745923252919095</v>
+        <v>0.04629738397718176</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1592934964834112</v>
+        <v>0.1481945580908824</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -7047,19 +7047,19 @@
         <v>10510</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5756</v>
+        <v>5817</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17866</v>
+        <v>16947</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1113461887952228</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06097860641631567</v>
+        <v>0.06162722896431951</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1892757644985618</v>
+        <v>0.1795391645476803</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -7068,19 +7068,19 @@
         <v>20634</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14447</v>
+        <v>13816</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>30707</v>
+        <v>31296</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.09829334581620053</v>
+        <v>0.09829334581620056</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06882024923388304</v>
+        <v>0.06581487917795517</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1462746772491332</v>
+        <v>0.1490802607101743</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>13118</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7031</v>
+        <v>7226</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22800</v>
+        <v>22909</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1135399755995948</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06085850697964614</v>
+        <v>0.06254259172777521</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1973402400976788</v>
+        <v>0.1982880369854675</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -7118,19 +7118,19 @@
         <v>7727</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3628</v>
+        <v>3648</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14276</v>
+        <v>14735</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.08185961970373255</v>
+        <v>0.08185961970373253</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03843644929285998</v>
+        <v>0.03864748688028555</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1512484016518214</v>
+        <v>0.1561028775326269</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>20</v>
@@ -7139,19 +7139,19 @@
         <v>20845</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13130</v>
+        <v>12607</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31655</v>
+        <v>31203</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0992951420037462</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06254459304660716</v>
+        <v>0.06005527237576905</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1507902458630537</v>
+        <v>0.148637789283501</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>172011</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>146707</v>
+        <v>148606</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>196844</v>
+        <v>197788</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.3632084250113634</v>
+        <v>0.3632084250113633</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3097773949325026</v>
+        <v>0.3137873401117113</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.415643445057971</v>
+        <v>0.4176371309000324</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>163</v>
@@ -7264,19 +7264,19 @@
         <v>128329</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>110243</v>
+        <v>111855</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>144146</v>
+        <v>147374</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3313308151498309</v>
+        <v>0.3313308151498308</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2846364656762161</v>
+        <v>0.2887972183136479</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3721685228480188</v>
+        <v>0.3805043001358117</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>299</v>
@@ -7285,19 +7285,19 @@
         <v>300340</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>273070</v>
+        <v>272447</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>331304</v>
+        <v>333280</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3488669091615429</v>
+        <v>0.348866909161543</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3171915014836861</v>
+        <v>0.3164673823291085</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3848341346860037</v>
+        <v>0.3871295598121063</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>69194</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>54472</v>
+        <v>54273</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>86719</v>
+        <v>86333</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1461057331759941</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1150199417280579</v>
+        <v>0.114599430354386</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1831102836574384</v>
+        <v>0.1822964596293325</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>84</v>
@@ -7335,19 +7335,19 @@
         <v>63504</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>51856</v>
+        <v>50832</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>78221</v>
+        <v>76256</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1639601948743682</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1338867185748152</v>
+        <v>0.1312422000329221</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2019586038412032</v>
+        <v>0.1968840676943794</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>148</v>
@@ -7356,19 +7356,19 @@
         <v>132698</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>113765</v>
+        <v>114327</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>156297</v>
+        <v>153652</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1541383318102549</v>
+        <v>0.1541383318102548</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1321469377599215</v>
+        <v>0.1327995856999353</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1815505114520804</v>
+        <v>0.1784781804839281</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>124974</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>104231</v>
+        <v>105034</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>146863</v>
+        <v>148643</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2638878356438726</v>
+        <v>0.2638878356438725</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2200878824829799</v>
+        <v>0.2217834601845723</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3101067344461708</v>
+        <v>0.3138648241199442</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>136</v>
@@ -7406,19 +7406,19 @@
         <v>103322</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>89181</v>
+        <v>87351</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>120396</v>
+        <v>122004</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2667672031680673</v>
+        <v>0.2667672031680672</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2302555522529277</v>
+        <v>0.2255309873181134</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3108485115265303</v>
+        <v>0.3150018380280989</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>244</v>
@@ -7427,19 +7427,19 @@
         <v>228297</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>200381</v>
+        <v>202610</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>255990</v>
+        <v>259346</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2651832431466642</v>
+        <v>0.2651832431466643</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2327573191403977</v>
+        <v>0.2353469219224231</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2973515024309382</v>
+        <v>0.3012491864510294</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>63044</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>47284</v>
+        <v>45591</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>85474</v>
+        <v>83813</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1331202624044121</v>
+        <v>0.133120262404412</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09984167106496039</v>
+        <v>0.09626796883427807</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1804826406365084</v>
+        <v>0.1769749464933172</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>65</v>
@@ -7477,19 +7477,19 @@
         <v>50200</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>39308</v>
+        <v>39439</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>63568</v>
+        <v>64750</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1296098272188372</v>
+        <v>0.1296098272188371</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1014888612186844</v>
+        <v>0.1018277094135829</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1641248225023243</v>
+        <v>0.1671766838702843</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>113</v>
@@ -7498,19 +7498,19 @@
         <v>113244</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>92344</v>
+        <v>94080</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>134282</v>
+        <v>138245</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1315409419323825</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1072645623308978</v>
+        <v>0.1092803117295621</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1559786769363853</v>
+        <v>0.1605812921932915</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>44365</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>30190</v>
+        <v>30659</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>63306</v>
+        <v>61433</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.09367774376435797</v>
+        <v>0.09367774376435796</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06374774598109008</v>
+        <v>0.06473816358911368</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1336725039354565</v>
+        <v>0.1297177493045858</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>49</v>
@@ -7548,19 +7548,19 @@
         <v>41958</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>31735</v>
+        <v>32171</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>55041</v>
+        <v>56143</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1083319595888966</v>
+        <v>0.1083319595888965</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08193741847993055</v>
+        <v>0.08306141144072592</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1421087386563385</v>
+        <v>0.1449547649862827</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>81</v>
@@ -7569,19 +7569,19 @@
         <v>86323</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>67554</v>
+        <v>68216</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>107386</v>
+        <v>109596</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1002705739491554</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07846912661396485</v>
+        <v>0.07923839827677745</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1247369762420731</v>
+        <v>0.1273038304391188</v>
       </c>
     </row>
     <row r="33">
